--- a/biology/Zoologie/Arbanitis_kirstiae/Arbanitis_kirstiae.xlsx
+++ b/biology/Zoologie/Arbanitis_kirstiae/Arbanitis_kirstiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis kirstiae est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis kirstiae est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Willowvale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Willowvale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,19 mm de long sur 4,09 mm et l'abdomen 4,00 mm de long sur 3,02 mm et la carapace de la femelle paratype mesure 7,45 mm de long sur 5,87 mm et l'abdomen 8,53 mm de long sur 6,19 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,19 mm de long sur 4,09 mm et l'abdomen 4,00 mm de long sur 3,02 mm et la carapace de la femelle paratype mesure 7,45 mm de long sur 5,87 mm et l'abdomen 8,53 mm de long sur 6,19 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence à Kirstie Wilson Wishart, la fille de Graham Wishart[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence à Kirstie Wilson Wishart, la fille de Graham Wishart.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wishart, 1992 : New species of the trapdoor spider genus Misgolas Karsch (Mygalomorphae: Idiopidae) with a review of the tube-building species. Records of the Australian Museum, vol. 44, no 3, p. 263-278 (texte intégral).</t>
         </is>
